--- a/va_facility_data_2025-02-20/Dr. Joseph Medicine Crow VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Dr.%20Joseph%20Medicine%20Crow%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Dr. Joseph Medicine Crow VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Dr.%20Joseph%20Medicine%20Crow%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R712a7fbcafc448399be2e0253f961ef4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R83ba6b44cca046168e0fc82dd6808e4b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R416707375eef41dab95afede4b64f64e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rfc3759c4dc1844ff8974342dc5415af5"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2c60097dc72b4ed69fbe6b5c7a77adb7"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rcd05ed34aba2411bae5a05251d90a2ae"/>
   </x:sheets>
 </x:workbook>
 </file>
